--- a/Sprint3_Backlog_Template.xlsx
+++ b/Sprint3_Backlog_Template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SE\Hello-World\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412B1F92-AB43-4A8A-B04C-CEC62AB1AE6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="94">
   <si>
     <t>User story</t>
   </si>
@@ -36,69 +42,6 @@
     <t>Reviewers 1</t>
   </si>
   <si>
-    <t>A Member Should be able to remove a certificate from his profile</t>
-  </si>
-  <si>
-    <t>A Member Should be able to remove Past Events from his Profile</t>
-  </si>
-  <si>
-    <t>A Partner Should be able to remove Board Members from thier profile</t>
-  </si>
-  <si>
-    <t>A Partner Should be able to remove Partners from his profile</t>
-  </si>
-  <si>
-    <t>A Partner Should be able to remove a project from his past projects</t>
-  </si>
-  <si>
-    <t>A Partner Should be able to remove events from his profile</t>
-  </si>
-  <si>
-    <t>A Consultant Should be able to  remove Board Members from his Profile</t>
-  </si>
-  <si>
-    <t>A Consultant Should be able to remove Partners from his profile</t>
-  </si>
-  <si>
-    <t>A Consultant Should be able to remove reports from his profile</t>
-  </si>
-  <si>
-    <t>A Consultant Should be able to remove events from his Profile</t>
-  </si>
-  <si>
-    <t>An Educational Organization Should be able to remove Courses from their Profile</t>
-  </si>
-  <si>
-    <t>An Educational Organization Should be able to remove Trainers from their Profile</t>
-  </si>
-  <si>
-    <t>An Educational Organization Should be able to remove Certificates from their Profile</t>
-  </si>
-  <si>
-    <t>An Educational Organization Should be able to remove Training Programs from their Profile</t>
-  </si>
-  <si>
-    <t>A Member Should be able to View Masterclasses</t>
-  </si>
-  <si>
-    <t>A Member Should be able to require assesment with an Expert</t>
-  </si>
-  <si>
-    <t>A Member should be notified if his request is accepted</t>
-  </si>
-  <si>
-    <t>A Member Should be able to apply for a masterclass</t>
-  </si>
-  <si>
-    <t>A Member Should be able to View Recommended Masterclasses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An Expert Should be able to Respond to requests by members </t>
-  </si>
-  <si>
-    <t>An Expert Should be able to Assess Members</t>
-  </si>
-  <si>
     <t>Karim</t>
   </si>
   <si>
@@ -361,39 +304,12 @@
   </si>
   <si>
     <t>Testing a Consultant should be able to post a Task</t>
-  </si>
-  <si>
-    <t>youssef</t>
-  </si>
-  <si>
-    <t>karim</t>
-  </si>
-  <si>
-    <t>motaz</t>
-  </si>
-  <si>
-    <t>kashlan</t>
-  </si>
-  <si>
-    <t>gaafer</t>
-  </si>
-  <si>
-    <t>hossam</t>
-  </si>
-  <si>
-    <t>bassem</t>
-  </si>
-  <si>
-    <t>sohail</t>
-  </si>
-  <si>
-    <t>mahmoud</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -502,7 +418,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,9 +451,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,6 +503,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -745,11 +695,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,19 +735,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -805,19 +755,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -825,19 +775,19 @@
         <v>1.2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -845,19 +795,19 @@
         <v>1.3</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -865,19 +815,19 @@
         <v>1.4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -885,19 +835,19 @@
         <v>1.5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -905,19 +855,19 @@
         <v>1.6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -925,19 +875,19 @@
         <v>1.7</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -945,19 +895,19 @@
         <v>1.8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -965,19 +915,19 @@
         <v>1.9</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -985,19 +935,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1005,19 +955,19 @@
         <v>2.1</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1025,19 +975,19 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1045,19 +995,19 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1065,19 +1015,19 @@
         <v>2.4</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1085,19 +1035,19 @@
         <v>2.5</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1105,19 +1055,19 @@
         <v>2.6</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1125,19 +1075,19 @@
         <v>2.7</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1145,19 +1095,19 @@
         <v>2.8</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1165,19 +1115,19 @@
         <v>2.9</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1185,19 +1135,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1205,19 +1155,19 @@
         <v>3.1</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1225,19 +1175,19 @@
         <v>3.2</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1245,19 +1195,19 @@
         <v>3.3</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1265,19 +1215,19 @@
         <v>3.4</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1285,19 +1235,19 @@
         <v>3.5</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1305,19 +1255,19 @@
         <v>3.6</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1325,19 +1275,19 @@
         <v>3.7</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1345,19 +1295,19 @@
         <v>3.8</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1365,19 +1315,19 @@
         <v>3.9</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1385,19 +1335,19 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1405,19 +1355,19 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1425,19 +1375,19 @@
         <v>4.2</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1445,19 +1395,19 @@
         <v>4.3</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1465,19 +1415,19 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1485,19 +1435,19 @@
         <v>4.5</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1505,19 +1455,19 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1525,19 +1475,19 @@
         <v>4.7</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1545,19 +1495,19 @@
         <v>4.8</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1565,19 +1515,19 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1585,19 +1535,19 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1605,19 +1555,19 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1625,19 +1575,19 @@
         <v>5.2</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1645,19 +1595,19 @@
         <v>5.3</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1665,19 +1615,19 @@
         <v>5.4</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1685,19 +1635,19 @@
         <v>5.5</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1705,19 +1655,19 @@
         <v>5.6</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1725,19 +1675,19 @@
         <v>5.7</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1745,19 +1695,19 @@
         <v>5.8</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1765,19 +1715,19 @@
         <v>5.9</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1785,19 +1735,19 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1805,19 +1755,19 @@
         <v>6.1</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1825,19 +1775,19 @@
         <v>6.2</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C54">
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1845,19 +1795,19 @@
         <v>6.3</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1865,19 +1815,19 @@
         <v>6.4</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C56">
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1885,19 +1835,19 @@
         <v>6.5</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1905,19 +1855,19 @@
         <v>6.6</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C58">
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1925,19 +1875,19 @@
         <v>6.7</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C59">
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1945,19 +1895,19 @@
         <v>6.8</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1965,19 +1915,19 @@
         <v>6.9</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1985,19 +1935,19 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C62">
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2005,19 +1955,19 @@
         <v>7.1</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2025,19 +1975,19 @@
         <v>7.2</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2045,19 +1995,19 @@
         <v>7.3</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2065,19 +2015,19 @@
         <v>7.4</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C66">
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2085,19 +2035,19 @@
         <v>7.5</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2105,19 +2055,19 @@
         <v>7.6</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C68">
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2125,19 +2075,19 @@
         <v>7.7</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2145,19 +2095,19 @@
         <v>7.8</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C70">
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2165,19 +2115,19 @@
         <v>7.9</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C71">
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2185,19 +2135,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C72">
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2205,19 +2155,19 @@
         <v>8.1</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C73">
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2225,19 +2175,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B74" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C74">
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2245,19 +2195,19 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B75" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C75">
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2265,19 +2215,19 @@
         <v>8.4</v>
       </c>
       <c r="B76" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C76">
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2285,19 +2235,19 @@
         <v>8.5</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C77">
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2305,19 +2255,19 @@
         <v>8.6</v>
       </c>
       <c r="B78" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2325,19 +2275,19 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="B79" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C79">
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2345,376 +2295,19 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>8.9</v>
-      </c>
-      <c r="B82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" t="s">
-        <v>115</v>
-      </c>
-      <c r="E82" t="s">
-        <v>117</v>
-      </c>
-      <c r="F82" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>9</v>
-      </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" t="s">
-        <v>116</v>
-      </c>
-      <c r="E83" t="s">
-        <v>115</v>
-      </c>
-      <c r="F83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>9.1</v>
-      </c>
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" t="s">
-        <v>117</v>
-      </c>
-      <c r="E84" t="s">
-        <v>116</v>
-      </c>
-      <c r="F84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" t="s">
-        <v>115</v>
-      </c>
-      <c r="E85" t="s">
-        <v>117</v>
-      </c>
-      <c r="F85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B86" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s">
-        <v>116</v>
-      </c>
-      <c r="E86" t="s">
-        <v>115</v>
-      </c>
-      <c r="F86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>9.4</v>
-      </c>
-      <c r="B87" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" t="s">
-        <v>117</v>
-      </c>
-      <c r="E87" t="s">
-        <v>116</v>
-      </c>
-      <c r="F87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>9.5</v>
-      </c>
-      <c r="B88" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" t="s">
-        <v>115</v>
-      </c>
-      <c r="E88" t="s">
-        <v>117</v>
-      </c>
-      <c r="F88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>9.4</v>
-      </c>
-      <c r="B89" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" t="s">
-        <v>116</v>
-      </c>
-      <c r="E89" t="s">
-        <v>115</v>
-      </c>
-      <c r="F89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>9.5</v>
-      </c>
-      <c r="B90" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" t="s">
-        <v>119</v>
-      </c>
-      <c r="E90" t="s">
-        <v>118</v>
-      </c>
-      <c r="F90" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>9.6</v>
-      </c>
-      <c r="B91" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" t="s">
-        <v>120</v>
-      </c>
-      <c r="E91" t="s">
-        <v>119</v>
-      </c>
-      <c r="F91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="B92" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" t="s">
-        <v>118</v>
-      </c>
-      <c r="E92" t="s">
-        <v>120</v>
-      </c>
-      <c r="F92" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="B93" t="s">
         <v>13</v>
-      </c>
-      <c r="D93" t="s">
-        <v>119</v>
-      </c>
-      <c r="E93" t="s">
-        <v>118</v>
-      </c>
-      <c r="F93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>9.9</v>
-      </c>
-      <c r="B94" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" t="s">
-        <v>120</v>
-      </c>
-      <c r="E94" t="s">
-        <v>119</v>
-      </c>
-      <c r="F94" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>10</v>
-      </c>
-      <c r="B95" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" t="s">
-        <v>118</v>
-      </c>
-      <c r="E95" t="s">
-        <v>120</v>
-      </c>
-      <c r="F95" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>10.1</v>
-      </c>
-      <c r="B96" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" t="s">
-        <v>119</v>
-      </c>
-      <c r="E96" t="s">
-        <v>118</v>
-      </c>
-      <c r="F96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="B97" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97" t="s">
-        <v>120</v>
-      </c>
-      <c r="E97" t="s">
-        <v>119</v>
-      </c>
-      <c r="F97" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>10.3</v>
-      </c>
-      <c r="B98" t="s">
-        <v>22</v>
-      </c>
-      <c r="D98" t="s">
-        <v>121</v>
-      </c>
-      <c r="E98" t="s">
-        <v>122</v>
-      </c>
-      <c r="F98" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>10.4</v>
-      </c>
-      <c r="B99" t="s">
-        <v>25</v>
-      </c>
-      <c r="D99" t="s">
-        <v>122</v>
-      </c>
-      <c r="E99" t="s">
-        <v>123</v>
-      </c>
-      <c r="F99" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>10.5</v>
-      </c>
-      <c r="B100" t="s">
-        <v>23</v>
-      </c>
-      <c r="D100" t="s">
-        <v>123</v>
-      </c>
-      <c r="E100" t="s">
-        <v>121</v>
-      </c>
-      <c r="F100" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>10.6</v>
-      </c>
-      <c r="B101" t="s">
-        <v>24</v>
-      </c>
-      <c r="D101" t="s">
-        <v>121</v>
-      </c>
-      <c r="E101" t="s">
-        <v>122</v>
-      </c>
-      <c r="F101" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>10.7</v>
-      </c>
-      <c r="B102" t="s">
-        <v>26</v>
-      </c>
-      <c r="D102" t="s">
-        <v>122</v>
-      </c>
-      <c r="E102" t="s">
-        <v>123</v>
-      </c>
-      <c r="F102" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2731,7 +2324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2743,7 +2336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Sprint3_Backlog_Template.xlsx
+++ b/Sprint3_Backlog_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SE\Hello-World\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412B1F92-AB43-4A8A-B04C-CEC62AB1AE6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4D4E0E-F85E-4E68-BBCE-D9F99E6E01CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,13 +761,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1161,13 +1161,13 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1181,13 +1181,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1201,13 +1201,13 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1221,13 +1221,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1421,13 +1421,13 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1441,13 +1441,13 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1461,13 +1461,13 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1481,13 +1481,13 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1841,13 +1841,13 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1861,13 +1861,13 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1881,13 +1881,13 @@
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2241,13 +2241,13 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
         <v>9</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>14</v>
-      </c>
-      <c r="F77" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2261,13 +2261,13 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
         <v>9</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>14</v>
-      </c>
-      <c r="F78" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2281,13 +2281,13 @@
         <v>3</v>
       </c>
       <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
         <v>9</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>14</v>
-      </c>
-      <c r="F79" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2301,13 +2301,13 @@
         <v>2</v>
       </c>
       <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
         <v>9</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>14</v>
-      </c>
-      <c r="F80" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
